--- a/data/Manual Tagging of Locations.xlsx
+++ b/data/Manual Tagging of Locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MadwolfDT\ISSS608_G1_T08\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB072F38-79E2-4659-9C62-BD83263818E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE11A5-D5DA-4F13-A77D-EEA07B268366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C2011E7-F6C6-464F-B867-BA705ABE8868}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
   <si>
     <t>Locations</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Long</t>
   </si>
   <si>
-    <t>Kronos Capital</t>
-  </si>
-  <si>
     <t>Pilau Park</t>
   </si>
   <si>
@@ -64,6 +61,135 @@
   </si>
   <si>
     <t>Chostus Hotel</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Adra Nubarron</t>
+  </si>
+  <si>
+    <t>Isande Borrasca</t>
+  </si>
+  <si>
+    <t>Hennie Osvaldo</t>
+  </si>
+  <si>
+    <t>Inga Ferro</t>
+  </si>
+  <si>
+    <t>Felix Resumir</t>
+  </si>
+  <si>
+    <t>Bertrand Ovan</t>
+  </si>
+  <si>
+    <t>Lidelse Dedos</t>
+  </si>
+  <si>
+    <t>Brand Tempestad</t>
+  </si>
+  <si>
+    <t>Stenig Fusil</t>
+  </si>
+  <si>
+    <t>Edvard Vann</t>
+  </si>
+  <si>
+    <t>Hideki Cocinaro</t>
+  </si>
+  <si>
+    <t>Lucas Alcazar</t>
+  </si>
+  <si>
+    <t>Nils Calixto</t>
+  </si>
+  <si>
+    <t>Isak Baza</t>
+  </si>
+  <si>
+    <t>Kare Orilla</t>
+  </si>
+  <si>
+    <t>Marin Onda</t>
+  </si>
+  <si>
+    <t>Orhan Strum</t>
+  </si>
+  <si>
+    <t>Ingrid Barranco</t>
+  </si>
+  <si>
+    <t>Elsa Orilla</t>
+  </si>
+  <si>
+    <t>Lars Azada</t>
+  </si>
+  <si>
+    <t>Axel Calzas</t>
+  </si>
+  <si>
+    <t>Gustav Cazar</t>
+  </si>
+  <si>
+    <t>Felix Balas</t>
+  </si>
+  <si>
+    <t>Vira Frente</t>
+  </si>
+  <si>
+    <t>Linnea Bergen</t>
+  </si>
+  <si>
+    <t>Ada Campo-Corrente</t>
+  </si>
+  <si>
+    <t>Loreto Bodrogi</t>
+  </si>
+  <si>
+    <t>Isia Vann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sven Flecha </t>
+  </si>
+  <si>
+    <t>Birgitta Frente</t>
+  </si>
+  <si>
+    <t>Varja Lagos</t>
+  </si>
+  <si>
+    <t>Minke Mies</t>
+  </si>
+  <si>
+    <t>Kanon Herrero</t>
+  </si>
+  <si>
+    <t>Sten Sanjorge Jr.</t>
+  </si>
+  <si>
+    <t>Willem Vasco-Pais</t>
+  </si>
+  <si>
+    <t>Stays with 15</t>
+  </si>
+  <si>
+    <t>Stays with 13</t>
+  </si>
+  <si>
+    <t>Stays with 33</t>
+  </si>
+  <si>
+    <t>Stays with 17</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -95,15 +221,27 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,21 +249,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,108 +622,1674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB98B35C-41A4-4B67-8D87-B234B1CA3FCD}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="17.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="3"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8">
+        <v>36.066400000000002</v>
+      </c>
+      <c r="E2" s="8">
+        <v>24.8827</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8">
+        <v>36.066400000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <v>24.8826</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>36.066499999999998</v>
+      </c>
+      <c r="E4" s="8">
+        <v>24.8826</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>36.066499999999998</v>
+      </c>
+      <c r="E5" s="8">
+        <v>24.8827</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8">
+        <v>36.0854</v>
+      </c>
+      <c r="E6" s="8">
+        <v>24.860499999999998</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>36.0854</v>
+      </c>
+      <c r="E7" s="8">
+        <v>24.860399999999998</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>36.085500000000003</v>
+      </c>
+      <c r="E8" s="8">
+        <v>24.860399999999998</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8">
+        <v>36.085500000000003</v>
+      </c>
+      <c r="E9" s="8">
+        <v>24.860499999999998</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>36.086599999999997</v>
+      </c>
+      <c r="E10" s="8">
+        <v>24.857600000000001</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8">
+        <v>36.0867</v>
+      </c>
+      <c r="E11" s="8">
+        <v>24.857700000000001</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8">
+        <v>36.0867</v>
+      </c>
+      <c r="E12" s="8">
+        <v>24.857600000000001</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8">
+        <v>36.078200000000002</v>
+      </c>
+      <c r="E13" s="8">
+        <v>24.872199999999999</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8">
+        <v>36.078200000000002</v>
+      </c>
+      <c r="E14" s="8">
+        <v>24.8721</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
+        <v>36.067300000000003</v>
+      </c>
+      <c r="E15" s="8">
+        <v>24.8779</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
+        <v>36.067300000000003</v>
+      </c>
+      <c r="E16" s="8">
+        <v>24.878</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8">
+        <v>36.067399999999999</v>
+      </c>
+      <c r="E17" s="8">
+        <v>24.8779</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="7">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="8">
+        <v>36.084400000000002</v>
+      </c>
+      <c r="E18" s="8">
+        <v>24.8642</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8">
+        <v>36.084499999999998</v>
+      </c>
+      <c r="E19" s="8">
+        <v>24.8642</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8">
+        <v>36.0672</v>
+      </c>
+      <c r="E20" s="8">
+        <v>24.885899999999999</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8">
+        <v>36.0672</v>
+      </c>
+      <c r="E21" s="8">
+        <v>24.885999999999999</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="7">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8">
+        <v>36.067300000000003</v>
+      </c>
+      <c r="E22" s="8">
+        <v>24.885899999999999</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8">
+        <v>36.067300000000003</v>
+      </c>
+      <c r="E23" s="8">
+        <v>24.885999999999999</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="8">
+        <v>36.084200000000003</v>
+      </c>
+      <c r="E24" s="8">
+        <v>24.856400000000001</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="7">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8">
+        <v>36.084299999999999</v>
+      </c>
+      <c r="E25" s="8">
+        <v>24.856400000000001</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="7">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8">
+        <v>36.084299999999999</v>
+      </c>
+      <c r="E26" s="8">
+        <v>24.8565</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="7">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8">
+        <v>36.084099999999999</v>
+      </c>
+      <c r="E27" s="8">
+        <v>24.859100000000002</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="7">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="8">
+        <v>36.084099999999999</v>
+      </c>
+      <c r="E28" s="8">
+        <v>24.859000000000002</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="7">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8">
+        <v>36.084200000000003</v>
+      </c>
+      <c r="E29" s="8">
+        <v>24.859000000000002</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="7">
+        <v>12</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="8">
+        <v>36.067700000000002</v>
+      </c>
+      <c r="E30" s="8">
+        <v>24.8992</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="7">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="8">
+        <v>36.067700000000002</v>
+      </c>
+      <c r="E31" s="8">
+        <v>24.899100000000001</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="7">
+        <v>12</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="8">
+        <v>36.067799999999998</v>
+      </c>
+      <c r="E32" s="8">
+        <v>24.899100000000001</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="7">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="8">
+        <v>36.067799999999998</v>
+      </c>
+      <c r="E33" s="8">
+        <v>24.8992</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="15">
+        <v>13</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="16">
+        <v>36.060299999999998</v>
+      </c>
+      <c r="E34" s="16">
+        <v>24.9057</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="15">
+        <v>13</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="16">
+        <v>36.060400000000001</v>
+      </c>
+      <c r="E35" s="16">
+        <v>24.9057</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="7">
+        <v>14</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8">
+        <v>36.063299999999998</v>
+      </c>
+      <c r="E36" s="8">
+        <v>24.896100000000001</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="7">
+        <v>14</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="8">
+        <v>36.063299999999998</v>
+      </c>
+      <c r="E37" s="8">
+        <v>24.8962</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="7">
+        <v>14</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="8">
+        <v>36.063400000000001</v>
+      </c>
+      <c r="E38" s="8">
+        <v>24.8962</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="7">
+        <v>14</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="8">
+        <v>36.063400000000001</v>
+      </c>
+      <c r="E39" s="8">
+        <v>24.896100000000001</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="15">
+        <v>15</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="16">
+        <v>36.060400000000001</v>
+      </c>
+      <c r="E40" s="16">
+        <v>24.9056</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="15">
+        <v>15</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="16">
+        <v>36.060299999999998</v>
+      </c>
+      <c r="E41" s="16">
+        <v>24.9056</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="12">
+        <v>17</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="13">
+        <v>36.0625</v>
+      </c>
+      <c r="E42" s="13">
+        <v>24.898800000000001</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="12">
+        <v>17</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="13">
+        <v>36.0625</v>
+      </c>
+      <c r="E43" s="13">
+        <v>24.898900000000001</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="7">
+        <v>19</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="8">
+        <v>36.087800000000001</v>
+      </c>
+      <c r="E44" s="8">
+        <v>24.856400000000001</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="7">
+        <v>19</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="8">
+        <v>36.087800000000001</v>
+      </c>
+      <c r="E45" s="8">
+        <v>24.856300000000001</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="7">
+        <v>19</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="8">
+        <v>36.087899999999998</v>
+      </c>
+      <c r="E46" s="8">
+        <v>24.856300000000001</v>
+      </c>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="7">
+        <v>19</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="8">
+        <v>36.087899999999998</v>
+      </c>
+      <c r="E47" s="8">
+        <v>24.856400000000001</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="7">
+        <v>20</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="8">
+        <v>36.065800000000003</v>
+      </c>
+      <c r="E48" s="8">
+        <v>24.9011</v>
+      </c>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="7">
+        <v>20</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="8">
+        <v>36.065800000000003</v>
+      </c>
+      <c r="E49" s="8">
+        <v>24.901</v>
+      </c>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="7">
+        <v>20</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="8">
+        <v>36.065899999999999</v>
+      </c>
+      <c r="E50" s="8">
+        <v>24.901</v>
+      </c>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="7">
+        <v>20</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="8">
+        <v>36.065899999999999</v>
+      </c>
+      <c r="E51" s="8">
+        <v>24.9011</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="7">
+        <v>21</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="8">
+        <v>36.050199999999997</v>
+      </c>
+      <c r="E52" s="8">
+        <v>24.900400000000001</v>
+      </c>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="7">
+        <v>21</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="8">
+        <v>36.050199999999997</v>
+      </c>
+      <c r="E53" s="8">
+        <v>24.900500000000001</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="7">
+        <v>21</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="8">
+        <v>36.0501</v>
+      </c>
+      <c r="E54" s="8">
+        <v>24.900400000000001</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="7">
+        <v>22</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="8">
+        <v>36.052900000000001</v>
+      </c>
+      <c r="E55" s="8">
+        <v>24.849399999999999</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="7">
+        <v>22</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="8">
+        <v>36.052999999999997</v>
+      </c>
+      <c r="E56" s="8">
+        <v>24.849399999999999</v>
+      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="7">
+        <v>26</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="8">
+        <v>36.072899999999997</v>
+      </c>
+      <c r="E57" s="8">
+        <v>24.884</v>
+      </c>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="7">
+        <v>26</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="8">
+        <v>36.073</v>
+      </c>
+      <c r="E58" s="8">
+        <v>24.8841</v>
+      </c>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="7">
+        <v>26</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="8">
+        <v>36.073</v>
+      </c>
+      <c r="E59" s="8">
+        <v>24.884</v>
+      </c>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="7">
+        <v>27</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="8">
+        <v>36.069200000000002</v>
+      </c>
+      <c r="E60" s="8">
+        <v>24.8843</v>
+      </c>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="7">
+        <v>27</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="8">
+        <v>36.069200000000002</v>
+      </c>
+      <c r="E61" s="8">
+        <v>24.8842</v>
+      </c>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="7">
+        <v>27</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="8">
+        <v>36.069299999999998</v>
+      </c>
+      <c r="E62" s="8">
+        <v>24.8842</v>
+      </c>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="7">
+        <v>27</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="8">
+        <v>36.069299999999998</v>
+      </c>
+      <c r="E63" s="8">
+        <v>24.8843</v>
+      </c>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="7">
+        <v>28</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="8">
+        <v>36.052399999999999</v>
+      </c>
+      <c r="E64" s="8">
+        <v>24.875299999999999</v>
+      </c>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="7">
+        <v>29</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="8">
+        <v>36.0595</v>
+      </c>
+      <c r="E65" s="8">
+        <v>24.8948</v>
+      </c>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="7">
+        <v>30</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="8">
+        <v>36.058500000000002</v>
+      </c>
+      <c r="E66" s="8">
+        <v>24.9011</v>
+      </c>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="7">
+        <v>30</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="8">
+        <v>36.058500000000002</v>
+      </c>
+      <c r="E67" s="8">
+        <v>24.901</v>
+      </c>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="7">
+        <v>30</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="8">
+        <v>36.058399999999999</v>
+      </c>
+      <c r="E68" s="8">
+        <v>24.901</v>
+      </c>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="7">
+        <v>30</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="8">
+        <v>36.058399999999999</v>
+      </c>
+      <c r="E69" s="8">
+        <v>24.9011</v>
+      </c>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="7">
+        <v>32</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="8">
+        <v>36.072099999999999</v>
+      </c>
+      <c r="E70" s="8">
+        <v>24.874600000000001</v>
+      </c>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="7">
+        <v>32</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="8">
+        <v>36.072200000000002</v>
+      </c>
+      <c r="E71" s="8">
+        <v>24.874600000000001</v>
+      </c>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="12">
+        <v>33</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="13">
+        <v>36.062399999999997</v>
+      </c>
+      <c r="E72" s="13">
+        <v>24.898800000000001</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="12">
+        <v>33</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="13">
+        <v>36.062399999999997</v>
+      </c>
+      <c r="E73" s="13">
+        <v>24.898900000000001</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="7">
+        <v>34</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="8">
+        <v>36.067599999999999</v>
+      </c>
+      <c r="E74" s="8">
+        <v>24.9025</v>
+      </c>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="7">
+        <v>34</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="8">
+        <v>36.067700000000002</v>
+      </c>
+      <c r="E75" s="8">
+        <v>24.9025</v>
+      </c>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="7">
+        <v>34</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="8">
+        <v>36.067700000000002</v>
+      </c>
+      <c r="E76" s="8">
+        <v>24.9024</v>
+      </c>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="7">
+        <v>34</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="8">
+        <v>36.067799999999998</v>
+      </c>
+      <c r="E77" s="8">
+        <v>24.9025</v>
+      </c>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" s="7">
+        <v>34</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="8">
+        <v>36.067799999999998</v>
+      </c>
+      <c r="E78" s="8">
+        <v>24.9024</v>
+      </c>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8">
+        <v>36.048000000000002</v>
+      </c>
+      <c r="E79" s="8">
+        <v>24.8796</v>
+      </c>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8">
         <v>36.050899999999999</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E80" s="8">
         <v>24.825900000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8">
+        <v>36.054600000000001</v>
+      </c>
+      <c r="E81" s="8">
+        <v>24.889800000000001</v>
+      </c>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>36.052900000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>24.849399999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8">
         <v>36.057200000000002</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E82" s="8">
         <v>24.844899999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8">
+        <v>36.070599999999999</v>
+      </c>
+      <c r="E83" s="8">
+        <v>24.895199999999999</v>
+      </c>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8">
+        <v>36.074300000000001</v>
+      </c>
+      <c r="E84" s="8">
+        <v>24.846</v>
+      </c>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="7">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>36.048000000000002</v>
-      </c>
-      <c r="C5" s="2">
-        <v>24.8796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>36.054600000000001</v>
-      </c>
-      <c r="C6" s="2">
-        <v>24.889800000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>36.074300000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>24.846</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>36.070599999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>24.895199999999999</v>
-      </c>
+      <c r="C85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86" s="7">
+        <v>10</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" s="7">
+        <v>16</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="7">
+        <v>18</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="7">
+        <v>23</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="7">
+        <v>24</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" s="7">
+        <v>25</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="7">
+        <v>31</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93" s="7">
+        <v>35</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E84">
+    <sortCondition ref="B2:B84"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Manual Tagging of Locations.xlsx
+++ b/data/Manual Tagging of Locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MadwolfDT\ISSS608_G1_T08\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE11A5-D5DA-4F13-A77D-EEA07B268366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8E453F-97BC-4255-8ABC-AEDB66483A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C2011E7-F6C6-464F-B867-BA705ABE8868}"/>
   </bookViews>
@@ -624,13 +624,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB98B35C-41A4-4B67-8D87-B234B1CA3FCD}">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="Q101" sqref="Q101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.42578125" style="3" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>

--- a/data/Manual Tagging of Locations.xlsx
+++ b/data/Manual Tagging of Locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MadwolfDT\ISSS608_G1_T08\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8E453F-97BC-4255-8ABC-AEDB66483A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7883A56-E23A-4C2D-A0E8-66BAFC0964FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C2011E7-F6C6-464F-B867-BA705ABE8868}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="58">
   <si>
     <t>Locations</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Nomad</t>
+  </si>
+  <si>
+    <t>Maybe U-Pump</t>
+  </si>
+  <si>
+    <t>Maybe Albert Fine Clothing</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Maybe Bean There Done That</t>
+  </si>
+  <si>
+    <t>Likely</t>
   </si>
 </sst>
 </file>
@@ -622,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB98B35C-41A4-4B67-8D87-B234B1CA3FCD}">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="Q101" sqref="Q101"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,7 +651,7 @@
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.42578125" style="3" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="3"/>
@@ -962,19 +980,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B18" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="8">
-        <v>36.084400000000002</v>
+        <v>36.0595</v>
       </c>
       <c r="E18" s="8">
-        <v>24.8642</v>
+        <v>24.8948</v>
       </c>
       <c r="F18" s="6"/>
       <c r="H18" s="9"/>
@@ -982,55 +1000,55 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B19" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="8">
-        <v>36.084499999999998</v>
+        <v>36.059399999999997</v>
       </c>
       <c r="E19" s="8">
-        <v>24.8642</v>
+        <v>24.8948</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="8">
-        <v>36.0672</v>
+        <v>36.084400000000002</v>
       </c>
       <c r="E20" s="8">
-        <v>24.885899999999999</v>
+        <v>24.8642</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B21" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="8">
-        <v>36.0672</v>
+        <v>36.084499999999998</v>
       </c>
       <c r="E21" s="8">
-        <v>24.885999999999999</v>
+        <v>24.8642</v>
       </c>
       <c r="F21" s="6"/>
     </row>
@@ -1045,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="8">
-        <v>36.067300000000003</v>
+        <v>36.0672</v>
       </c>
       <c r="E22" s="8">
         <v>24.885899999999999</v>
@@ -1063,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="8">
-        <v>36.067300000000003</v>
+        <v>36.0672</v>
       </c>
       <c r="E23" s="8">
         <v>24.885999999999999</v>
@@ -1072,73 +1090,73 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8">
-        <v>36.084200000000003</v>
+        <v>36.067300000000003</v>
       </c>
       <c r="E24" s="8">
-        <v>24.856400000000001</v>
+        <v>24.885899999999999</v>
       </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="8">
-        <v>36.084299999999999</v>
+        <v>36.067300000000003</v>
       </c>
       <c r="E25" s="8">
-        <v>24.856400000000001</v>
+        <v>24.885999999999999</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B26" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="8">
-        <v>36.084299999999999</v>
+        <v>36.076900000000002</v>
       </c>
       <c r="E26" s="8">
-        <v>24.8565</v>
+        <v>24.8659</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="8">
-        <v>36.084099999999999</v>
+        <v>36.076799999999999</v>
       </c>
       <c r="E27" s="8">
-        <v>24.859100000000002</v>
+        <v>24.8659</v>
       </c>
       <c r="F27" s="6"/>
     </row>
@@ -1156,7 +1174,7 @@
         <v>36.084099999999999</v>
       </c>
       <c r="E28" s="8">
-        <v>24.859000000000002</v>
+        <v>24.859100000000002</v>
       </c>
       <c r="F28" s="6"/>
     </row>
@@ -1171,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="8">
-        <v>36.084200000000003</v>
+        <v>36.084099999999999</v>
       </c>
       <c r="E29" s="8">
         <v>24.859000000000002</v>
@@ -1180,19 +1198,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B30" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="8">
-        <v>36.067700000000002</v>
+        <v>36.084200000000003</v>
       </c>
       <c r="E30" s="8">
-        <v>24.8992</v>
+        <v>24.859000000000002</v>
       </c>
       <c r="F30" s="6"/>
     </row>
@@ -1210,7 +1228,7 @@
         <v>36.067700000000002</v>
       </c>
       <c r="E31" s="8">
-        <v>24.899100000000001</v>
+        <v>24.8992</v>
       </c>
       <c r="F31" s="6"/>
     </row>
@@ -1225,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="8">
-        <v>36.067799999999998</v>
+        <v>36.067700000000002</v>
       </c>
       <c r="E32" s="8">
         <v>24.899100000000001</v>
@@ -1246,29 +1264,27 @@
         <v>36.067799999999998</v>
       </c>
       <c r="E33" s="8">
+        <v>24.899100000000001</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="7">
+        <v>12</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8">
+        <v>36.067799999999998</v>
+      </c>
+      <c r="E34" s="8">
         <v>24.8992</v>
       </c>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="15">
-        <v>13</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="16">
-        <v>36.060299999999998</v>
-      </c>
-      <c r="E34" s="16">
-        <v>24.9057</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
@@ -1281,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="16">
-        <v>36.060400000000001</v>
+        <v>36.060299999999998</v>
       </c>
       <c r="E35" s="16">
         <v>24.9057</v>
@@ -1291,22 +1307,24 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="7">
-        <v>14</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="8">
-        <v>36.063299999999998</v>
-      </c>
-      <c r="E36" s="8">
-        <v>24.896100000000001</v>
-      </c>
-      <c r="F36" s="6"/>
+      <c r="A36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="15">
+        <v>13</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="16">
+        <v>36.060400000000001</v>
+      </c>
+      <c r="E36" s="16">
+        <v>24.9057</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -1322,7 +1340,7 @@
         <v>36.063299999999998</v>
       </c>
       <c r="E37" s="8">
-        <v>24.8962</v>
+        <v>24.896100000000001</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -1337,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="8">
-        <v>36.063400000000001</v>
+        <v>36.063299999999998</v>
       </c>
       <c r="E38" s="8">
         <v>24.8962</v>
@@ -1358,29 +1376,27 @@
         <v>36.063400000000001</v>
       </c>
       <c r="E39" s="8">
+        <v>24.8962</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="7">
+        <v>14</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="8">
+        <v>36.063400000000001</v>
+      </c>
+      <c r="E40" s="8">
         <v>24.896100000000001</v>
       </c>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="15">
-        <v>15</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="16">
-        <v>36.060400000000001</v>
-      </c>
-      <c r="E40" s="16">
-        <v>24.9056</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
@@ -1393,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="16">
-        <v>36.060299999999998</v>
+        <v>36.060400000000001</v>
       </c>
       <c r="E41" s="16">
         <v>24.9056</v>
@@ -1403,447 +1419,449 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="12">
-        <v>17</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="13">
-        <v>36.0625</v>
-      </c>
-      <c r="E42" s="13">
-        <v>24.898800000000001</v>
+      <c r="A42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="15">
+        <v>15</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="16">
+        <v>36.060299999999998</v>
+      </c>
+      <c r="E42" s="16">
+        <v>24.9056</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="12">
-        <v>17</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="13">
-        <v>36.0625</v>
-      </c>
-      <c r="E43" s="13">
-        <v>24.898900000000001</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="A43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="7">
+        <v>16</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="8">
+        <v>36.060400000000001</v>
+      </c>
+      <c r="E43" s="8">
+        <v>24.9056</v>
+      </c>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B44" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="8">
-        <v>36.087800000000001</v>
+        <v>36.060400000000001</v>
       </c>
       <c r="E44" s="8">
-        <v>24.856400000000001</v>
+        <v>24.9057</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B45" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="8">
-        <v>36.087800000000001</v>
+        <v>36.060299999999998</v>
       </c>
       <c r="E45" s="8">
-        <v>24.856300000000001</v>
+        <v>24.9057</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B46" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="8">
-        <v>36.087899999999998</v>
+        <v>36.060299999999998</v>
       </c>
       <c r="E46" s="8">
-        <v>24.856300000000001</v>
+        <v>24.9056</v>
       </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="7">
-        <v>19</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="8">
-        <v>36.087899999999998</v>
-      </c>
-      <c r="E47" s="8">
-        <v>24.856400000000001</v>
-      </c>
-      <c r="F47" s="6"/>
+      <c r="A47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="12">
+        <v>17</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="13">
+        <v>36.0625</v>
+      </c>
+      <c r="E47" s="13">
+        <v>24.898800000000001</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="7">
-        <v>20</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="8">
-        <v>36.065800000000003</v>
-      </c>
-      <c r="E48" s="8">
-        <v>24.9011</v>
-      </c>
-      <c r="F48" s="6"/>
+      <c r="A48" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="12">
+        <v>17</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="13">
+        <v>36.0625</v>
+      </c>
+      <c r="E48" s="13">
+        <v>24.898900000000001</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B49" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="8">
-        <v>36.065800000000003</v>
+        <v>36.063400000000001</v>
       </c>
       <c r="E49" s="8">
-        <v>24.901</v>
+        <v>24.896100000000001</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B50" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="8">
-        <v>36.065899999999999</v>
+        <v>36.063400000000001</v>
       </c>
       <c r="E50" s="8">
-        <v>24.901</v>
+        <v>24.8962</v>
       </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B51" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="8">
-        <v>36.065899999999999</v>
+        <v>36.063299999999998</v>
       </c>
       <c r="E51" s="8">
-        <v>24.9011</v>
+        <v>24.8962</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B52" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="8">
-        <v>36.050199999999997</v>
+        <v>36.063299999999998</v>
       </c>
       <c r="E52" s="8">
-        <v>24.900400000000001</v>
+        <v>24.896100000000001</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B53" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="8">
-        <v>36.050199999999997</v>
+        <v>36.087800000000001</v>
       </c>
       <c r="E53" s="8">
-        <v>24.900500000000001</v>
+        <v>24.856400000000001</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B54" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="8">
-        <v>36.0501</v>
+        <v>36.087800000000001</v>
       </c>
       <c r="E54" s="8">
-        <v>24.900400000000001</v>
+        <v>24.856300000000001</v>
       </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B55" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="8">
-        <v>36.052900000000001</v>
+        <v>36.087899999999998</v>
       </c>
       <c r="E55" s="8">
-        <v>24.849399999999999</v>
+        <v>24.856300000000001</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B56" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="8">
-        <v>36.052999999999997</v>
+        <v>36.087899999999998</v>
       </c>
       <c r="E56" s="8">
-        <v>24.849399999999999</v>
+        <v>24.856400000000001</v>
       </c>
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B57" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="8">
-        <v>36.072899999999997</v>
+        <v>36.065800000000003</v>
       </c>
       <c r="E57" s="8">
-        <v>24.884</v>
+        <v>24.9011</v>
       </c>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B58" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="8">
-        <v>36.073</v>
+        <v>36.065800000000003</v>
       </c>
       <c r="E58" s="8">
-        <v>24.8841</v>
+        <v>24.901</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B59" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D59" s="8">
-        <v>36.073</v>
+        <v>36.065899999999999</v>
       </c>
       <c r="E59" s="8">
-        <v>24.884</v>
+        <v>24.901</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B60" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="8">
-        <v>36.069200000000002</v>
+        <v>36.065899999999999</v>
       </c>
       <c r="E60" s="8">
-        <v>24.8843</v>
+        <v>24.9011</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B61" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="8">
-        <v>36.069200000000002</v>
+        <v>36.050199999999997</v>
       </c>
       <c r="E61" s="8">
-        <v>24.8842</v>
+        <v>24.900400000000001</v>
       </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B62" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="8">
-        <v>36.069299999999998</v>
+        <v>36.050199999999997</v>
       </c>
       <c r="E62" s="8">
-        <v>24.8842</v>
+        <v>24.900500000000001</v>
       </c>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B63" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="8">
-        <v>36.069299999999998</v>
+        <v>36.0501</v>
       </c>
       <c r="E63" s="8">
-        <v>24.8843</v>
+        <v>24.900400000000001</v>
       </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="8">
-        <v>36.052399999999999</v>
+        <v>36.052900000000001</v>
       </c>
       <c r="E64" s="8">
-        <v>24.875299999999999</v>
+        <v>24.849399999999999</v>
       </c>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B65" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="8">
-        <v>36.0595</v>
+        <v>36.052999999999997</v>
       </c>
       <c r="E65" s="8">
-        <v>24.8948</v>
+        <v>24.849399999999999</v>
       </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B66" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>10</v>
@@ -1852,16 +1870,16 @@
         <v>36.058500000000002</v>
       </c>
       <c r="E66" s="8">
-        <v>24.9011</v>
+        <v>24.901</v>
       </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B67" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>10</v>
@@ -1870,16 +1888,16 @@
         <v>36.058500000000002</v>
       </c>
       <c r="E67" s="8">
-        <v>24.901</v>
+        <v>24.9011</v>
       </c>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B68" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>10</v>
@@ -1894,401 +1912,817 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B69" s="7">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="8">
-        <v>36.058399999999999</v>
+        <v>36.0625</v>
       </c>
       <c r="E69" s="8">
-        <v>24.9011</v>
+        <v>24.898800000000001</v>
       </c>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B70" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="8">
-        <v>36.072099999999999</v>
+        <v>36.0625</v>
       </c>
       <c r="E70" s="8">
-        <v>24.874600000000001</v>
+        <v>24.898900000000001</v>
       </c>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B71" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="8">
-        <v>36.072200000000002</v>
+        <v>36.062399999999997</v>
       </c>
       <c r="E71" s="8">
-        <v>24.874600000000001</v>
+        <v>24.898800000000001</v>
       </c>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" s="12">
-        <v>33</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="13">
-        <v>36.062399999999997</v>
-      </c>
-      <c r="E72" s="13">
-        <v>24.898800000000001</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A72" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="7">
+        <v>25</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="8">
+        <v>36.0595</v>
+      </c>
+      <c r="E72" s="8">
+        <v>24.8948</v>
+      </c>
+      <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="12">
-        <v>33</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="13">
-        <v>36.062399999999997</v>
-      </c>
-      <c r="E73" s="13">
-        <v>24.898900000000001</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="A73" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" s="7">
+        <v>25</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="8">
+        <v>36.0595</v>
+      </c>
+      <c r="E73" s="8">
+        <v>24.8949</v>
+      </c>
+      <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B74" s="7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="8">
-        <v>36.067599999999999</v>
+        <v>36.059399999999997</v>
       </c>
       <c r="E74" s="8">
-        <v>24.9025</v>
+        <v>24.8948</v>
       </c>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B75" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="8">
-        <v>36.067700000000002</v>
+        <v>36.072899999999997</v>
       </c>
       <c r="E75" s="8">
-        <v>24.9025</v>
+        <v>24.884</v>
       </c>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B76" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="8">
-        <v>36.067700000000002</v>
+        <v>36.073</v>
       </c>
       <c r="E76" s="8">
-        <v>24.9024</v>
+        <v>24.8841</v>
       </c>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B77" s="7">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="8">
-        <v>36.067799999999998</v>
+        <v>36.073</v>
       </c>
       <c r="E77" s="8">
-        <v>24.9025</v>
+        <v>24.884</v>
       </c>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B78" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="8">
-        <v>36.067799999999998</v>
+        <v>36.069200000000002</v>
       </c>
       <c r="E78" s="8">
-        <v>24.9024</v>
+        <v>24.8843</v>
       </c>
       <c r="F78" s="6"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="B79" s="7">
+        <v>27</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D79" s="8">
-        <v>36.048000000000002</v>
+        <v>36.069200000000002</v>
       </c>
       <c r="E79" s="8">
-        <v>24.8796</v>
+        <v>24.8842</v>
       </c>
       <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="B80" s="7">
+        <v>27</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D80" s="8">
-        <v>36.050899999999999</v>
+        <v>36.069299999999998</v>
       </c>
       <c r="E80" s="8">
-        <v>24.825900000000001</v>
+        <v>24.8842</v>
       </c>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="B81" s="7">
+        <v>27</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D81" s="8">
-        <v>36.054600000000001</v>
+        <v>36.069299999999998</v>
       </c>
       <c r="E81" s="8">
-        <v>24.889800000000001</v>
+        <v>24.8843</v>
       </c>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="B82" s="7">
+        <v>28</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D82" s="8">
-        <v>36.057200000000002</v>
+        <v>36.052399999999999</v>
       </c>
       <c r="E82" s="8">
-        <v>24.844899999999999</v>
+        <v>24.875299999999999</v>
       </c>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="B83" s="7">
+        <v>29</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D83" s="8">
-        <v>36.070599999999999</v>
+        <v>36.0595</v>
       </c>
       <c r="E83" s="8">
-        <v>24.895199999999999</v>
+        <v>24.8948</v>
       </c>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B84" s="7">
+        <v>30</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="D84" s="8">
-        <v>36.074300000000001</v>
+        <v>36.058500000000002</v>
       </c>
       <c r="E84" s="8">
-        <v>24.846</v>
+        <v>24.9011</v>
       </c>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B85" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
+      <c r="D85" s="8">
+        <v>36.058500000000002</v>
+      </c>
+      <c r="E85" s="8">
+        <v>24.901</v>
+      </c>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B86" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
+      <c r="D86" s="8">
+        <v>36.058399999999999</v>
+      </c>
+      <c r="E86" s="8">
+        <v>24.901</v>
+      </c>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B87" s="7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
+      <c r="D87" s="8">
+        <v>36.058399999999999</v>
+      </c>
+      <c r="E87" s="8">
+        <v>24.9011</v>
+      </c>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B88" s="7">
-        <v>18</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8">
+        <v>36.070599999999999</v>
+      </c>
+      <c r="E88" s="8">
+        <v>24.895199999999999</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B89" s="7">
-        <v>23</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8">
+        <v>36.070700000000002</v>
+      </c>
+      <c r="E89" s="8">
+        <v>24.895199999999999</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B90" s="7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="D90" s="8">
+        <v>36.072099999999999</v>
+      </c>
+      <c r="E90" s="8">
+        <v>24.874600000000001</v>
+      </c>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B91" s="7">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="D91" s="8">
+        <v>36.072200000000002</v>
+      </c>
+      <c r="E91" s="8">
+        <v>24.874600000000001</v>
+      </c>
       <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B92" s="7">
-        <v>31</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="6"/>
+      <c r="A92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" s="12">
+        <v>33</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="13">
+        <v>36.062399999999997</v>
+      </c>
+      <c r="E92" s="13">
+        <v>24.898800000000001</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="12">
+        <v>33</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="13">
+        <v>36.062399999999997</v>
+      </c>
+      <c r="E93" s="13">
+        <v>24.898900000000001</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" s="7">
+        <v>34</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="8">
+        <v>36.067599999999999</v>
+      </c>
+      <c r="E94" s="8">
+        <v>24.9025</v>
+      </c>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="7">
+        <v>34</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="8">
+        <v>36.067700000000002</v>
+      </c>
+      <c r="E95" s="8">
+        <v>24.9025</v>
+      </c>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="7">
+        <v>34</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="8">
+        <v>36.067700000000002</v>
+      </c>
+      <c r="E96" s="8">
+        <v>24.9024</v>
+      </c>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B97" s="7">
+        <v>34</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="8">
+        <v>36.067799999999998</v>
+      </c>
+      <c r="E97" s="8">
+        <v>24.9025</v>
+      </c>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="7">
+        <v>34</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="8">
+        <v>36.067799999999998</v>
+      </c>
+      <c r="E98" s="8">
+        <v>24.9024</v>
+      </c>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B99" s="7">
         <v>35</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="6"/>
+      <c r="C99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="8">
+        <v>36.0762</v>
+      </c>
+      <c r="E99" s="8">
+        <v>24.874700000000001</v>
+      </c>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100" s="7">
+        <v>35</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="8">
+        <v>36.076300000000003</v>
+      </c>
+      <c r="E100" s="8">
+        <v>24.874700000000001</v>
+      </c>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="8">
+        <v>36.048000000000002</v>
+      </c>
+      <c r="E101" s="8">
+        <v>24.8796</v>
+      </c>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="8">
+        <v>36.050899999999999</v>
+      </c>
+      <c r="E102" s="8">
+        <v>24.825900000000001</v>
+      </c>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="8">
+        <v>36.054600000000001</v>
+      </c>
+      <c r="E103" s="8">
+        <v>24.889800000000001</v>
+      </c>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="8">
+        <v>36.057200000000002</v>
+      </c>
+      <c r="E104" s="8">
+        <v>24.844899999999999</v>
+      </c>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="8">
+        <v>36.074300000000001</v>
+      </c>
+      <c r="E105" s="8">
+        <v>24.846</v>
+      </c>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="7">
+        <v>9</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" s="8">
+        <v>36.069600000000001</v>
+      </c>
+      <c r="E106" s="8">
+        <v>24.870200000000001</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="7">
+        <v>9</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" s="8">
+        <v>36.076700000000002</v>
+      </c>
+      <c r="E107" s="8">
+        <v>24.857600000000001</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="7">
+        <v>9</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="8">
+        <v>36.080399999999997</v>
+      </c>
+      <c r="E108" s="8">
+        <v>24.854900000000001</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="7">
+        <v>9</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="8">
+        <v>36.081699999999998</v>
+      </c>
+      <c r="E109" s="8">
+        <v>24.850999999999999</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="7">
+        <v>9</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" s="8">
+        <v>36.081800000000001</v>
+      </c>
+      <c r="E110" s="8">
+        <v>24.850899999999999</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="7">
+        <v>9</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="8">
+        <v>36.084299999999999</v>
+      </c>
+      <c r="E111" s="8">
+        <v>24.856400000000001</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="7">
+        <v>9</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="8">
+        <v>36.084299999999999</v>
+      </c>
+      <c r="E112" s="8">
+        <v>24.8565</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="7">
+        <v>9</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="8">
+        <v>36.084200000000003</v>
+      </c>
+      <c r="E113" s="8">
+        <v>24.856400000000001</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E84">
-    <sortCondition ref="B2:B84"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F105">
+    <sortCondition ref="B2:B105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
